--- a/public/data/서울성수.xlsx
+++ b/public/data/서울성수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\seoul_campaign\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\seoul_campaign\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="195">
   <si>
     <t>순회구</t>
   </si>
@@ -430,9 +430,6 @@
   </si>
   <si>
     <t>이세린</t>
-  </si>
-  <si>
-    <t>이종언</t>
   </si>
   <si>
     <t>김유정</t>
@@ -1048,10 +1045,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ996"/>
+  <dimension ref="A1:AJ994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1947,32 +1944,32 @@
         <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F15" s="10">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="G15" s="10">
-        <v>1024675311</v>
+        <v>1073434080</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1991,9 +1988,7 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
-      <c r="AH15" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3" t="s">
         <v>43</v>
@@ -2007,19 +2002,19 @@
         <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F16" s="10">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="G16" s="10">
-        <v>1073434080</v>
+        <v>1059117707</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>41</v>
@@ -2029,7 +2024,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="O16" s="3" t="s">
         <v>42</v>
       </c>
@@ -2065,35 +2062,37 @@
         <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" s="10">
-        <v>1998</v>
+        <v>1979</v>
       </c>
       <c r="G17" s="10">
-        <v>1059117707</v>
+        <v>1021534802</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2125,10 +2124,10 @@
         <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>68</v>
@@ -2137,7 +2136,7 @@
         <v>1979</v>
       </c>
       <c r="G18" s="10">
-        <v>1021534802</v>
+        <v>1050194802</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>54</v>
@@ -2187,45 +2186,47 @@
         <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F19" s="10">
-        <v>1979</v>
+        <v>1995</v>
       </c>
       <c r="G19" s="10">
-        <v>1050194802</v>
+        <v>1047380963</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="W19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -2249,19 +2250,19 @@
         <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F20" s="10">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="G20" s="10">
-        <v>1047380963</v>
+        <v>1022163802</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>54</v>
@@ -2313,19 +2314,19 @@
         <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F21" s="10">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="G21" s="10">
-        <v>1022163802</v>
+        <v>1023825016</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>54</v>
@@ -2339,21 +2340,17 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -2377,10 +2374,10 @@
         <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>75</v>
@@ -2389,7 +2386,7 @@
         <v>1984</v>
       </c>
       <c r="G22" s="10">
-        <v>1023825016</v>
+        <v>1026305016</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>54</v>
@@ -2437,19 +2434,19 @@
         <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F23" s="10">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="G23" s="10">
-        <v>1026305016</v>
+        <v>1066035366</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>54</v>
@@ -2483,8 +2480,12 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
+      <c r="AH23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AJ23" s="3" t="s">
         <v>43</v>
       </c>
@@ -2497,10 +2498,10 @@
         <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>78</v>
@@ -2509,7 +2510,7 @@
         <v>1978</v>
       </c>
       <c r="G24" s="10">
-        <v>1066035366</v>
+        <v>1027254488</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>54</v>
@@ -2561,19 +2562,19 @@
         <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F25" s="10">
-        <v>1978</v>
+        <v>2001</v>
       </c>
       <c r="G25" s="10">
-        <v>1027254488</v>
+        <v>1098330202</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>54</v>
@@ -2585,11 +2586,11 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="O25" s="3"/>
-      <c r="P25" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -2604,15 +2605,13 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
+      <c r="AE25" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
-      <c r="AH25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI25" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
       <c r="AJ25" s="3" t="s">
         <v>43</v>
       </c>
@@ -2625,19 +2624,19 @@
         <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="10">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="G26" s="10">
-        <v>1098330202</v>
+        <v>1028886006</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>54</v>
@@ -2687,19 +2686,19 @@
         <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F27" s="10">
-        <v>1996</v>
+        <v>1980</v>
       </c>
       <c r="G27" s="10">
-        <v>1028886006</v>
+        <v>1029570355</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>54</v>
@@ -2711,11 +2710,11 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -2730,9 +2729,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
@@ -2749,19 +2746,19 @@
         <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F28" s="10">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="G28" s="10">
-        <v>1029570355</v>
+        <v>1035684968</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>54</v>
@@ -2809,19 +2806,19 @@
         <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F29" s="10">
-        <v>1982</v>
+        <v>1993</v>
       </c>
       <c r="G29" s="10">
-        <v>1035684968</v>
+        <v>1083271914</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>54</v>
@@ -2851,14 +2848,16 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
+      <c r="AD29" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="20.25" customHeight="1">
@@ -2869,27 +2868,29 @@
         <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F30" s="10">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="G30" s="10">
-        <v>1083271914</v>
+        <v>1029629274</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2931,37 +2932,37 @@
         <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F31" s="10">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="G31" s="10">
-        <v>1029629274</v>
+        <v>1029981935</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="4">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -2984,7 +2985,7 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="20.25" customHeight="1">
@@ -2995,19 +2996,19 @@
         <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F32" s="10">
-        <v>1984</v>
+        <v>1990</v>
       </c>
       <c r="G32" s="10">
-        <v>1029981935</v>
+        <v>1093724327</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>54</v>
@@ -3059,33 +3060,27 @@
         <v>37</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F33" s="10">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="G33" s="10">
-        <v>1093724327</v>
+        <v>1091571914</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -3102,10 +3097,10 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3" t="s">
+      <c r="AC33" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
@@ -3123,7 +3118,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>45</v>
@@ -3132,10 +3127,10 @@
         <v>94</v>
       </c>
       <c r="F34" s="10">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="G34" s="10">
-        <v>1091571914</v>
+        <v>1030148252</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>41</v>
@@ -3173,7 +3168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="20.25" customHeight="1">
+    <row r="35" spans="1:36" ht="16.5" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -3181,19 +3176,19 @@
         <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="F35" s="10">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="G35" s="10">
-        <v>1030148252</v>
+        <v>1033122484</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>41</v>
@@ -3239,30 +3234,34 @@
         <v>37</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F36" s="10">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="G36" s="10">
-        <v>1033122484</v>
+        <v>1047295292</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J36" s="4"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="O36" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -3276,9 +3275,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
-      <c r="AC36" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
@@ -3297,7 +3294,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>45</v>
@@ -3306,10 +3303,10 @@
         <v>53</v>
       </c>
       <c r="F37" s="10">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="G37" s="10">
-        <v>1047295292</v>
+        <v>1048879747</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>54</v>
@@ -3357,7 +3354,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>45</v>
@@ -3366,10 +3363,10 @@
         <v>53</v>
       </c>
       <c r="F38" s="10">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="G38" s="10">
-        <v>1048879747</v>
+        <v>1096493255</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>54</v>
@@ -3417,7 +3414,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>45</v>
@@ -3426,17 +3423,15 @@
         <v>53</v>
       </c>
       <c r="F39" s="10">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="G39" s="10">
-        <v>1096493255</v>
+        <v>1030931543</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="4"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3477,33 +3472,35 @@
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F40" s="10">
-        <v>1968</v>
+        <v>1981</v>
       </c>
       <c r="G40" s="10">
-        <v>1030931543</v>
+        <v>1031281914</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J40" s="4"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -3535,19 +3532,19 @@
         <v>37</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F41" s="10">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="G41" s="10">
-        <v>1031281914</v>
+        <v>1067271919</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>54</v>
@@ -3595,32 +3592,34 @@
         <v>37</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F42" s="10">
-        <v>1984</v>
+        <v>1994</v>
       </c>
       <c r="G42" s="10">
-        <v>1067271919</v>
+        <v>1037918148</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I42" s="3"/>
       <c r="J42" s="4"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="N42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="P42" s="3" t="s">
         <v>42</v>
       </c>
@@ -3640,9 +3639,15 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
+      <c r="AG42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AJ42" s="3" t="s">
         <v>43</v>
       </c>
@@ -3655,7 +3660,7 @@
         <v>37</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>45</v>
@@ -3664,10 +3669,10 @@
         <v>105</v>
       </c>
       <c r="F43" s="10">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="G43" s="10">
-        <v>1037918148</v>
+        <v>1032007628</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>41</v>
@@ -3723,19 +3728,19 @@
         <v>37</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F44" s="10">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="G44" s="10">
-        <v>1032007628</v>
+        <v>1088082124</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>41</v>
@@ -3791,19 +3796,19 @@
         <v>37</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F45" s="10">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="G45" s="10">
-        <v>1088082124</v>
+        <v>1033202617</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>41</v>
@@ -3813,15 +3818,9 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -3837,16 +3836,12 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3" t="s">
+      <c r="AF45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AH45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI45" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
       <c r="AJ45" s="3" t="s">
         <v>43</v>
       </c>
@@ -3859,19 +3854,19 @@
         <v>37</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="F46" s="10">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="G46" s="10">
-        <v>1033202617</v>
+        <v>1056709082</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>41</v>
@@ -3917,24 +3912,26 @@
         <v>37</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F47" s="10">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="G47" s="10">
-        <v>1056709082</v>
+        <v>1048534722</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3953,13 +3950,13 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
+      <c r="AB47" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
@@ -3975,19 +3972,19 @@
         <v>37</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F48" s="10">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="G48" s="10">
-        <v>1048534722</v>
+        <v>1064416954</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>54</v>
@@ -4035,7 +4032,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>45</v>
@@ -4044,18 +4041,20 @@
         <v>113</v>
       </c>
       <c r="F49" s="10">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="G49" s="10">
-        <v>1064416954</v>
+        <v>1054477654</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J49" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="J49" s="4">
+        <v>2</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -4095,29 +4094,25 @@
         <v>37</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F50" s="10">
-        <v>1983</v>
+        <v>2000</v>
       </c>
       <c r="G50" s="10">
-        <v>1054477654</v>
+        <v>1043960288</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J50" s="4">
-        <v>2</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -4134,7 +4129,9 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
+      <c r="AA50" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB50" s="3" t="s">
         <v>42</v>
       </c>
@@ -4157,7 +4154,7 @@
         <v>37</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>45</v>
@@ -4166,10 +4163,10 @@
         <v>117</v>
       </c>
       <c r="F51" s="10">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="G51" s="10">
-        <v>1043960288</v>
+        <v>1081404577</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>41</v>
@@ -4217,24 +4214,26 @@
         <v>37</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="F52" s="10">
-        <v>2006</v>
+        <v>1979</v>
       </c>
       <c r="G52" s="10">
-        <v>1081404577</v>
+        <v>1029881644</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I52" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J52" s="4"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -4245,19 +4244,19 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
+      <c r="T52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
-      <c r="AA52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB52" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
@@ -4277,27 +4276,29 @@
         <v>37</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F53" s="10">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="G53" s="10">
-        <v>1029881644</v>
+        <v>1044331644</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J53" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -4339,44 +4340,40 @@
         <v>37</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="F54" s="10">
-        <v>1977</v>
+        <v>1994</v>
       </c>
       <c r="G54" s="10">
-        <v>1044331644</v>
+        <v>1044421652</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
+      <c r="N54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -4403,19 +4400,19 @@
         <v>37</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F55" s="10">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="G55" s="10">
-        <v>1044421652</v>
+        <v>1058741935</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>41</v>
@@ -4463,43 +4460,47 @@
         <v>37</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F56" s="10">
-        <v>1997</v>
+        <v>1969</v>
       </c>
       <c r="G56" s="10">
-        <v>1058741935</v>
+        <v>1050295288</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I56" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J56" s="4"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="N56" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
+      <c r="V56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X56" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
@@ -4523,19 +4524,19 @@
         <v>37</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F57" s="10">
-        <v>1969</v>
+        <v>1959</v>
       </c>
       <c r="G57" s="10">
-        <v>1050295288</v>
+        <v>1071575041</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>54</v>
@@ -4587,7 +4588,7 @@
         <v>37</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>45</v>
@@ -4596,18 +4597,20 @@
         <v>126</v>
       </c>
       <c r="F58" s="10">
-        <v>1959</v>
+        <v>1985</v>
       </c>
       <c r="G58" s="10">
-        <v>1071575041</v>
+        <v>1049075620</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="J58" s="4">
+        <v>2</v>
+      </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -4651,19 +4654,19 @@
         <v>37</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F59" s="10">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="G59" s="10">
-        <v>1049075620</v>
+        <v>1051593234</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>54</v>
@@ -4672,7 +4675,7 @@
         <v>69</v>
       </c>
       <c r="J59" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -4685,18 +4688,16 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
-      <c r="V59" s="3" t="s">
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W59" s="3" t="s">
+      <c r="AA59" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
@@ -4717,7 +4718,7 @@
         <v>37</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>45</v>
@@ -4726,20 +4727,16 @@
         <v>130</v>
       </c>
       <c r="F60" s="10">
-        <v>1977</v>
+        <v>2007</v>
       </c>
       <c r="G60" s="10">
-        <v>1051593234</v>
+        <v>1044233234</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J60" s="4">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4781,24 +4778,26 @@
         <v>37</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F61" s="10">
-        <v>2007</v>
+        <v>1973</v>
       </c>
       <c r="G61" s="10">
-        <v>1044233234</v>
+        <v>1051240582</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J61" s="4"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -4815,13 +4814,11 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
-      <c r="Z61" s="3" t="s">
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA61" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
@@ -4841,7 +4838,7 @@
         <v>37</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>45</v>
@@ -4850,17 +4847,15 @@
         <v>133</v>
       </c>
       <c r="F62" s="10">
-        <v>1973</v>
+        <v>2003</v>
       </c>
       <c r="G62" s="10">
-        <v>1051240582</v>
+        <v>1020334772</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I62" s="3"/>
       <c r="J62" s="4"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -4874,7 +4869,9 @@
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
+      <c r="W62" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
@@ -4882,7 +4879,9 @@
       <c r="AB62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AC62" s="3"/>
+      <c r="AC62" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
@@ -4901,7 +4900,7 @@
         <v>37</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>45</v>
@@ -4910,10 +4909,10 @@
         <v>133</v>
       </c>
       <c r="F63" s="10">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="G63" s="10">
-        <v>1020334772</v>
+        <v>1055144772</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>41</v>
@@ -4963,7 +4962,7 @@
         <v>37</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>45</v>
@@ -4972,10 +4971,10 @@
         <v>133</v>
       </c>
       <c r="F64" s="10">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G64" s="10">
-        <v>1055144772</v>
+        <v>1074000582</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>41</v>
@@ -4994,9 +4993,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
@@ -5004,9 +5001,7 @@
       <c r="AB64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AC64" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
@@ -5025,19 +5020,19 @@
         <v>37</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F65" s="10">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="G65" s="10">
-        <v>1074000582</v>
+        <v>1072058680</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>41</v>
@@ -5058,19 +5053,27 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
+      <c r="Y65" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
-      <c r="AB65" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-      <c r="AH65" s="3"/>
-      <c r="AI65" s="3"/>
+      <c r="AF65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI65" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AJ65" s="3" t="s">
         <v>43</v>
       </c>
@@ -5083,26 +5086,24 @@
         <v>37</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F66" s="10">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="G66" s="10">
-        <v>1066660976</v>
+        <v>1055360556</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I66" s="3"/>
       <c r="J66" s="4"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -5114,9 +5115,13 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
+      <c r="U66" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
+      <c r="W66" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
@@ -5130,7 +5135,9 @@
       <c r="AH66" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AI66" s="3"/>
+      <c r="AI66" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AJ66" s="3" t="s">
         <v>43</v>
       </c>
@@ -5143,19 +5150,19 @@
         <v>37</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F67" s="10">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G67" s="10">
-        <v>1072058680</v>
+        <v>1092459508</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>41</v>
@@ -5172,31 +5179,25 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
+      <c r="U67" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-      <c r="Y67" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-      <c r="AF67" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG67" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
       <c r="AH67" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AI67" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AI67" s="3"/>
       <c r="AJ67" s="3" t="s">
         <v>43</v>
       </c>
@@ -5209,19 +5210,19 @@
         <v>37</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F68" s="10">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G68" s="10">
-        <v>1055360556</v>
+        <v>1075721968</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>41</v>
@@ -5242,9 +5243,7 @@
         <v>42</v>
       </c>
       <c r="V68" s="3"/>
-      <c r="W68" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
@@ -5258,9 +5257,7 @@
       <c r="AH68" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AI68" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AI68" s="3"/>
       <c r="AJ68" s="3" t="s">
         <v>43</v>
       </c>
@@ -5273,24 +5270,26 @@
         <v>37</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F69" s="10">
-        <v>1995</v>
+        <v>1963</v>
       </c>
       <c r="G69" s="10">
-        <v>1092459508</v>
+        <v>1093253900</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I69" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J69" s="4"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5302,16 +5301,16 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
-      <c r="U69" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
+      <c r="AB69" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
@@ -5320,9 +5319,7 @@
       <c r="AH69" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AI69" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AI69" s="3"/>
       <c r="AJ69" s="3" t="s">
         <v>43</v>
       </c>
@@ -5335,24 +5332,26 @@
         <v>37</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F70" s="10">
-        <v>1997</v>
+        <v>1967</v>
       </c>
       <c r="G70" s="10">
-        <v>1075721968</v>
+        <v>1093735511</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J70" s="4"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5364,16 +5363,16 @@
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
-      <c r="U70" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
+      <c r="AB70" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
@@ -5382,9 +5381,7 @@
       <c r="AH70" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AI70" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AI70" s="3"/>
       <c r="AJ70" s="3" t="s">
         <v>43</v>
       </c>
@@ -5397,19 +5394,19 @@
         <v>37</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F71" s="10">
-        <v>1963</v>
+        <v>1986</v>
       </c>
       <c r="G71" s="10">
-        <v>1093253900</v>
+        <v>1093583455</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>54</v>
@@ -5420,7 +5417,9 @@
       <c r="J71" s="4"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
+      <c r="M71" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
@@ -5430,22 +5429,20 @@
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
+      <c r="W71" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
-      <c r="AB71" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
       <c r="AG71" s="3"/>
-      <c r="AH71" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
       <c r="AJ71" s="3" t="s">
         <v>43</v>
@@ -5459,19 +5456,19 @@
         <v>37</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F72" s="10">
-        <v>1967</v>
+        <v>1988</v>
       </c>
       <c r="G72" s="10">
-        <v>1093735511</v>
+        <v>1026515743</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>54</v>
@@ -5482,7 +5479,9 @@
       <c r="J72" s="4"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
+      <c r="M72" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
@@ -5492,22 +5491,20 @@
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
+      <c r="W72" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
-      <c r="AB72" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
-      <c r="AH72" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
       <c r="AJ72" s="3" t="s">
         <v>43</v>
@@ -5521,19 +5518,19 @@
         <v>37</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F73" s="10">
-        <v>1986</v>
+        <v>1951</v>
       </c>
       <c r="G73" s="10">
-        <v>1093583455</v>
+        <v>1080041740</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>54</v>
@@ -5544,9 +5541,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-      <c r="M73" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
@@ -5556,9 +5551,7 @@
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
-      <c r="W73" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="W73" s="3"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
@@ -5567,7 +5560,9 @@
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
+      <c r="AF73" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AG73" s="3"/>
       <c r="AH73" s="3"/>
       <c r="AI73" s="3"/>
@@ -5583,33 +5578,33 @@
         <v>37</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F74" s="10">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="G74" s="10">
-        <v>1026515743</v>
+        <v>1027739886</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I74" s="3"/>
       <c r="J74" s="4"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N74" s="3"/>
+      <c r="N74" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
@@ -5618,9 +5613,7 @@
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-      <c r="W74" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
@@ -5645,32 +5638,34 @@
         <v>37</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F75" s="10">
-        <v>1951</v>
+        <v>1990</v>
       </c>
       <c r="G75" s="10">
-        <v>1080041740</v>
+        <v>1020550810</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I75" s="3"/>
       <c r="J75" s="4"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
+      <c r="M75" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
+      <c r="O75" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
@@ -5687,9 +5682,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
-      <c r="AF75" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
       <c r="AH75" s="3"/>
       <c r="AI75" s="3"/>
@@ -5705,19 +5698,19 @@
         <v>37</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F76" s="10">
-        <v>1991</v>
+        <v>1955</v>
       </c>
       <c r="G76" s="10">
-        <v>1027739886</v>
+        <v>1065825423</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>41</v>
@@ -5726,15 +5719,13 @@
       <c r="J76" s="4"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
+      <c r="Q76" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
@@ -5749,7 +5740,9 @@
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
-      <c r="AF76" s="3"/>
+      <c r="AF76" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AG76" s="3"/>
       <c r="AH76" s="3"/>
       <c r="AI76" s="3"/>
@@ -5765,24 +5758,26 @@
         <v>37</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F77" s="10">
-        <v>1990</v>
+        <v>1969</v>
       </c>
       <c r="G77" s="10">
-        <v>1020550810</v>
+        <v>1029227821</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I77" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J77" s="4"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -5790,9 +5785,7 @@
         <v>42</v>
       </c>
       <c r="N77" s="3"/>
-      <c r="O77" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
@@ -5825,34 +5818,36 @@
         <v>37</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F78" s="10">
-        <v>1955</v>
+        <v>1968</v>
       </c>
       <c r="G78" s="10">
-        <v>1065825423</v>
+        <v>1028197821</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J78" s="4"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
+      <c r="M78" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
-      <c r="Q78" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
@@ -5867,9 +5862,7 @@
       <c r="AC78" s="3"/>
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
-      <c r="AF78" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
       <c r="AH78" s="3"/>
       <c r="AI78" s="3"/>
@@ -5885,35 +5878,33 @@
         <v>37</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F79" s="10">
-        <v>1969</v>
+        <v>1980</v>
       </c>
       <c r="G79" s="10">
-        <v>1029227821</v>
+        <v>1071605366</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I79" s="3"/>
       <c r="J79" s="4"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
+      <c r="P79" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
@@ -5945,19 +5936,19 @@
         <v>37</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="F80" s="10">
-        <v>1968</v>
+        <v>1951</v>
       </c>
       <c r="G80" s="10">
-        <v>1028197821</v>
+        <v>1053978556</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>54</v>
@@ -5968,9 +5959,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
@@ -5986,11 +5975,15 @@
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
+      <c r="AC80" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
-      <c r="AG80" s="3"/>
+      <c r="AG80" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
       <c r="AJ80" s="3" t="s">
@@ -6005,33 +5998,33 @@
         <v>37</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="F81" s="10">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="G81" s="10">
-        <v>1071605366</v>
+        <v>1068581084</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I81" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J81" s="4"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
@@ -6044,11 +6037,15 @@
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
+      <c r="AC81" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
-      <c r="AG81" s="3"/>
+      <c r="AG81" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
       <c r="AJ81" s="3" t="s">
@@ -6063,7 +6060,7 @@
         <v>37</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>45</v>
@@ -6072,10 +6069,10 @@
         <v>68</v>
       </c>
       <c r="F82" s="10">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="G82" s="10">
-        <v>1053978556</v>
+        <v>1058419421</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>54</v>
@@ -6125,33 +6122,35 @@
         <v>37</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F83" s="10">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="G83" s="10">
-        <v>1068581084</v>
+        <v>1089170941</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I83" s="3"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
+      <c r="O83" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
@@ -6164,17 +6163,21 @@
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
-      <c r="AC83" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
-      <c r="AF83" s="3"/>
+      <c r="AF83" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AG83" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AH83" s="3"/>
-      <c r="AI83" s="3"/>
+      <c r="AH83" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI83" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AJ83" s="3" t="s">
         <v>43</v>
       </c>
@@ -6187,19 +6190,19 @@
         <v>37</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="F84" s="10">
-        <v>1950</v>
+        <v>1987</v>
       </c>
       <c r="G84" s="10">
-        <v>1058419421</v>
+        <v>1085451831</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>54</v>
@@ -6226,15 +6229,13 @@
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
-      <c r="AC84" s="3" t="s">
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
-      <c r="AG84" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AG84" s="3"/>
       <c r="AH84" s="3"/>
       <c r="AI84" s="3"/>
       <c r="AJ84" s="3" t="s">
@@ -6249,35 +6250,33 @@
         <v>37</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="F85" s="10">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="G85" s="10">
-        <v>1089170941</v>
+        <v>1034930345</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I85" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J85" s="4"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
-      <c r="O85" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P85" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
@@ -6291,20 +6290,14 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
-      <c r="AD85" s="3"/>
+      <c r="AD85" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AE85" s="3"/>
-      <c r="AF85" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG85" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH85" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI85" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AF85" s="3"/>
+      <c r="AG85" s="3"/>
+      <c r="AH85" s="3"/>
+      <c r="AI85" s="3"/>
       <c r="AJ85" s="3" t="s">
         <v>43</v>
       </c>
@@ -6317,26 +6310,24 @@
         <v>37</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F86" s="10">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="G86" s="10">
-        <v>1085451831</v>
+        <v>1086436355</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I86" s="3"/>
       <c r="J86" s="4"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -6348,7 +6339,9 @@
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
-      <c r="U86" s="3"/>
+      <c r="U86" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
@@ -6357,9 +6350,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
-      <c r="AD86" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
       <c r="AG86" s="3"/>
@@ -6377,19 +6368,19 @@
         <v>37</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F87" s="10">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="G87" s="10">
-        <v>1034930345</v>
+        <v>1091510352</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>54</v>
@@ -6408,7 +6399,9 @@
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
-      <c r="U87" s="3"/>
+      <c r="U87" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
@@ -6417,9 +6410,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
-      <c r="AD87" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
       <c r="AG87" s="3"/>
@@ -6437,24 +6428,26 @@
         <v>37</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F88" s="10">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="G88" s="10">
-        <v>1086436355</v>
+        <v>1034760027</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I88" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J88" s="4"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -6495,19 +6488,19 @@
         <v>37</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F89" s="10">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G89" s="10">
-        <v>1091510352</v>
+        <v>1038036953</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>54</v>
@@ -6555,19 +6548,19 @@
         <v>37</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F90" s="10">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="G90" s="10">
-        <v>1034760027</v>
+        <v>1032501935</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>54</v>
@@ -6615,19 +6608,19 @@
         <v>37</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F91" s="10">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="G91" s="10">
-        <v>1038036953</v>
+        <v>1094055764</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>54</v>
@@ -6636,7 +6629,9 @@
         <v>55</v>
       </c>
       <c r="J91" s="4"/>
-      <c r="K91" s="3"/>
+      <c r="K91" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -6646,9 +6641,7 @@
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
-      <c r="U91" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
@@ -6657,7 +6650,9 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
-      <c r="AD91" s="3"/>
+      <c r="AD91" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
       <c r="AG91" s="3"/>
@@ -6675,19 +6670,19 @@
         <v>37</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F92" s="10">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="G92" s="10">
-        <v>1032501935</v>
+        <v>1077883973</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>54</v>
@@ -6696,7 +6691,9 @@
         <v>55</v>
       </c>
       <c r="J92" s="4"/>
-      <c r="K92" s="3"/>
+      <c r="K92" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
@@ -6706,9 +6703,7 @@
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
-      <c r="U92" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
@@ -6717,7 +6712,9 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
-      <c r="AD92" s="3"/>
+      <c r="AD92" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
       <c r="AG92" s="3"/>
@@ -6735,19 +6732,19 @@
         <v>37</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F93" s="10">
-        <v>1992</v>
+        <v>1958</v>
       </c>
       <c r="G93" s="10">
-        <v>1094055764</v>
+        <v>1038605875</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>54</v>
@@ -6756,9 +6753,7 @@
         <v>55</v>
       </c>
       <c r="J93" s="4"/>
-      <c r="K93" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -6772,14 +6767,18 @@
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-      <c r="AA93" s="3"/>
+      <c r="Y93" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z93" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA93" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
-      <c r="AD93" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
       <c r="AF93" s="3"/>
       <c r="AG93" s="3"/>
@@ -6797,19 +6796,19 @@
         <v>37</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F94" s="10">
-        <v>1986</v>
+        <v>1963</v>
       </c>
       <c r="G94" s="10">
-        <v>1077883973</v>
+        <v>1066381935</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>54</v>
@@ -6818,9 +6817,7 @@
         <v>55</v>
       </c>
       <c r="J94" s="4"/>
-      <c r="K94" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -6834,14 +6831,18 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-      <c r="AA94" s="3"/>
+      <c r="Y94" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
-      <c r="AD94" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
       <c r="AF94" s="3"/>
       <c r="AG94" s="3"/>
@@ -6859,19 +6860,19 @@
         <v>37</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F95" s="10">
-        <v>1958</v>
+        <v>1967</v>
       </c>
       <c r="G95" s="10">
-        <v>1038605875</v>
+        <v>1074427730</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>54</v>
@@ -6888,21 +6889,19 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
+      <c r="S95" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-      <c r="Y95" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z95" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA95" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
@@ -6923,19 +6922,19 @@
         <v>37</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F96" s="10">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="G96" s="10">
-        <v>1066381935</v>
+        <v>1095615009</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>54</v>
@@ -6952,21 +6951,19 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
+      <c r="S96" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T96" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
-      <c r="Y96" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z96" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA96" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
@@ -6987,26 +6984,24 @@
         <v>37</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F97" s="10">
-        <v>1967</v>
+        <v>1979</v>
       </c>
       <c r="G97" s="10">
-        <v>1074427730</v>
+        <v>1064501914</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I97" s="3"/>
       <c r="J97" s="4"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -7016,14 +7011,12 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
-      <c r="S97" s="3" t="s">
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T97" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
@@ -7036,7 +7029,9 @@
       <c r="AF97" s="3"/>
       <c r="AG97" s="3"/>
       <c r="AH97" s="3"/>
-      <c r="AI97" s="3"/>
+      <c r="AI97" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AJ97" s="3" t="s">
         <v>43</v>
       </c>
@@ -7049,26 +7044,24 @@
         <v>37</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F98" s="10">
-        <v>1967</v>
+        <v>1987</v>
       </c>
       <c r="G98" s="10">
-        <v>1095615009</v>
+        <v>1082661866</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I98" s="3"/>
       <c r="J98" s="4"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -7078,14 +7071,12 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
-      <c r="S98" s="3" t="s">
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T98" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
@@ -7098,7 +7089,9 @@
       <c r="AF98" s="3"/>
       <c r="AG98" s="3"/>
       <c r="AH98" s="3"/>
-      <c r="AI98" s="3"/>
+      <c r="AI98" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AJ98" s="3" t="s">
         <v>43</v>
       </c>
@@ -7111,19 +7104,19 @@
         <v>37</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F99" s="10">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="G99" s="10">
-        <v>1064501914</v>
+        <v>1043735189</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>41</v>
@@ -7171,19 +7164,19 @@
         <v>37</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F100" s="10">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="G100" s="10">
-        <v>1082661866</v>
+        <v>1067528556</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>41</v>
@@ -7220,238 +7213,192 @@
         <v>42</v>
       </c>
       <c r="AJ100" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A101" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" s="13" customFormat="1">
+      <c r="A101" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F101" s="10">
-        <v>1985</v>
-      </c>
-      <c r="G101" s="10">
-        <v>1043735189</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3" t="s">
+      <c r="E101" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" s="12">
+        <v>1981</v>
+      </c>
+      <c r="G101" s="12">
+        <v>1048028338</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="12"/>
+      <c r="AC101" s="12"/>
+      <c r="AD101" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="W101" s="3"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="3"/>
-      <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
-      <c r="AF101" s="3"/>
-      <c r="AG101" s="3"/>
-      <c r="AH101" s="3"/>
-      <c r="AI101" s="3" t="s">
+      <c r="AJ101" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" s="13" customFormat="1">
+      <c r="A102" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F102" s="12">
+        <v>1980</v>
+      </c>
+      <c r="G102" s="12">
+        <v>1034113297</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
+      <c r="AC102" s="12"/>
+      <c r="AD102" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AJ101" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F102" s="10">
-        <v>1991</v>
-      </c>
-      <c r="G102" s="10">
-        <v>1067528556</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I102" s="3"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W102" s="3"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="3"/>
-      <c r="AD102" s="3"/>
-      <c r="AE102" s="3"/>
-      <c r="AF102" s="3"/>
-      <c r="AG102" s="3"/>
-      <c r="AH102" s="3"/>
-      <c r="AI102" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ102" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:36" s="13" customFormat="1">
-      <c r="A103" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" s="12" t="s">
+      <c r="AJ102" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D103" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F103" s="12">
-        <v>1981</v>
-      </c>
-      <c r="G103" s="12">
-        <v>1048028338</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
-      <c r="S103" s="12"/>
-      <c r="T103" s="12"/>
-      <c r="U103" s="12"/>
-      <c r="V103" s="12"/>
-      <c r="W103" s="12"/>
-      <c r="X103" s="12"/>
-      <c r="Y103" s="12"/>
-      <c r="Z103" s="12"/>
-      <c r="AA103" s="12"/>
-      <c r="AB103" s="12"/>
-      <c r="AC103" s="12"/>
-      <c r="AD103" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ103" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="104" spans="1:36" s="13" customFormat="1">
-      <c r="A104" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F104" s="12">
-        <v>1980</v>
-      </c>
-      <c r="G104" s="12">
-        <v>1034113297</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
-      <c r="U104" s="12"/>
-      <c r="V104" s="12"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="12"/>
-      <c r="Y104" s="12"/>
-      <c r="Z104" s="12"/>
-      <c r="AA104" s="12"/>
-      <c r="AB104" s="12"/>
-      <c r="AC104" s="12"/>
-      <c r="AD104" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ104" s="12" t="s">
-        <v>194</v>
-      </c>
+    </row>
+    <row r="103" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+      <c r="AG103" s="5"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+      <c r="AJ103" s="5"/>
+    </row>
+    <row r="104" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="6"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+      <c r="AG104" s="5"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
     </row>
     <row r="105" spans="1:36" ht="16.5" customHeight="1">
       <c r="A105" s="5"/>
@@ -40383,88 +40330,14 @@
       <c r="AI994" s="5"/>
       <c r="AJ994" s="5"/>
     </row>
-    <row r="995" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A995" s="5"/>
-      <c r="B995" s="5"/>
-      <c r="C995" s="5"/>
-      <c r="D995" s="5"/>
-      <c r="E995" s="5"/>
-      <c r="F995" s="6"/>
-      <c r="H995" s="5"/>
-      <c r="I995" s="5"/>
-      <c r="J995" s="6"/>
-      <c r="K995" s="5"/>
-      <c r="L995" s="5"/>
-      <c r="M995" s="5"/>
-      <c r="N995" s="5"/>
-      <c r="O995" s="5"/>
-      <c r="P995" s="5"/>
-      <c r="Q995" s="5"/>
-      <c r="R995" s="5"/>
-      <c r="S995" s="5"/>
-      <c r="T995" s="5"/>
-      <c r="U995" s="5"/>
-      <c r="V995" s="5"/>
-      <c r="W995" s="5"/>
-      <c r="X995" s="5"/>
-      <c r="Y995" s="5"/>
-      <c r="Z995" s="5"/>
-      <c r="AA995" s="5"/>
-      <c r="AB995" s="5"/>
-      <c r="AC995" s="5"/>
-      <c r="AD995" s="5"/>
-      <c r="AE995" s="5"/>
-      <c r="AF995" s="5"/>
-      <c r="AG995" s="5"/>
-      <c r="AH995" s="5"/>
-      <c r="AI995" s="5"/>
-      <c r="AJ995" s="5"/>
-    </row>
-    <row r="996" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A996" s="5"/>
-      <c r="B996" s="5"/>
-      <c r="C996" s="5"/>
-      <c r="D996" s="5"/>
-      <c r="E996" s="5"/>
-      <c r="F996" s="6"/>
-      <c r="H996" s="5"/>
-      <c r="I996" s="5"/>
-      <c r="J996" s="6"/>
-      <c r="K996" s="5"/>
-      <c r="L996" s="5"/>
-      <c r="M996" s="5"/>
-      <c r="N996" s="5"/>
-      <c r="O996" s="5"/>
-      <c r="P996" s="5"/>
-      <c r="Q996" s="5"/>
-      <c r="R996" s="5"/>
-      <c r="S996" s="5"/>
-      <c r="T996" s="5"/>
-      <c r="U996" s="5"/>
-      <c r="V996" s="5"/>
-      <c r="W996" s="5"/>
-      <c r="X996" s="5"/>
-      <c r="Y996" s="5"/>
-      <c r="Z996" s="5"/>
-      <c r="AA996" s="5"/>
-      <c r="AB996" s="5"/>
-      <c r="AC996" s="5"/>
-      <c r="AD996" s="5"/>
-      <c r="AE996" s="5"/>
-      <c r="AF996" s="5"/>
-      <c r="AG996" s="5"/>
-      <c r="AH996" s="5"/>
-      <c r="AI996" s="5"/>
-      <c r="AJ996" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A103:AJ104">
+  <conditionalFormatting sqref="A101:AJ102">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($AJ103="취소",$AJ103&lt;&gt;"")</formula>
+      <formula>AND($AJ101="취소",$AJ101&lt;&gt;"")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(OR(ISNUMBER(FIND("변경",$AJ103)),$AJ103="추가"),$AJ103&lt;&gt;"")</formula>
+      <formula>AND(OR(ISNUMBER(FIND("변경",$AJ101)),$AJ101="추가"),$AJ101&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
